--- a/biology/Botanique/Calyceraceae/Calyceraceae.xlsx
+++ b/biology/Botanique/Calyceraceae/Calyceraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Calyceraceae sont une famille de plantes dicotylédones de l'ordre des Asterales ; elle comprend 40 espèces réparties en 5 à 6 genres
 Ce sont des plantes herbacées, annuelles ou pérennes, des régions tempérées à subtropicales d'Amérique du Sud.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Calycera, composé des mots grecs καλυξ  / kalyx, « enveloppe ; calice », et κέρας  / keras, « corne d’animal », en référence au « calice adhérant avec l’ovaire infère (et) son limbe persistant, à cinq divisions, parfois épineuses ou en forme de corne.  A. Wahlen »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Calycera, composé des mots grecs καλυξ  / kalyx, « enveloppe ; calice », et κέρας  / keras, « corne d’animal », en référence au « calice adhérant avec l’ovaire infère (et) son limbe persistant, à cinq divisions, parfois épineuses ou en forme de corne.  A. Wahlen ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[2] et la classification phylogénétique APG III (2009)[3] situent cette famille dans les Asterales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) situent cette famille dans les Asterales.
 </t>
         </is>
       </c>
@@ -574,23 +590,25 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015) :
 Acarpha (es) Griseb.
 Acicarpha Juss.
 Boopis (en) Juss.
 Calycera Cav.
 Gamocarpha (en) DC.
 Moschopsis (en) Phil.
-Selon DELTA Angio           (12 nov. 2015)[5] et NCBI  (12 nov. 2015)[6] :
+Selon DELTA Angio           (12 nov. 2015) et NCBI  (12 nov. 2015) :
 Acicarpha
 Boopis
 Calycera
 Gamocarpha
 Moschopsis
 Nastanthus
-Selon ITIS      (12 nov. 2015)[7] :
+Selon ITIS      (12 nov. 2015) :
 Acicarpha Juss.
 Calycera Cav.</t>
         </is>
@@ -620,9 +638,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (9 Jul 2010)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (9 Jul 2010) :
 genre Acicarpha
 Acicarpha procumbens
 Acicarpha spathulata
